--- a/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,57; 76,48</t>
+          <t>68,2; 76,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,45; 75,59</t>
+          <t>69,35; 75,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,15; 75,2</t>
+          <t>70,24; 75,15</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,19; 75,44</t>
+          <t>70,35; 75,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,27; 74,33</t>
+          <t>66,58; 74,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,14; 73,66</t>
+          <t>68,97; 73,59</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,26; 73,2</t>
+          <t>65,17; 72,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,73; 69,26</t>
+          <t>62,64; 68,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,18; 70,06</t>
+          <t>64,89; 70,02</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,15; 74,08</t>
+          <t>69,97; 73,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,35; 72,9</t>
+          <t>67,45; 72,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,29; 72,55</t>
+          <t>69,2; 72,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,2; 76,69</t>
+          <t>68,57; 76,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,35; 75,94</t>
+          <t>69,45; 75,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,24; 75,15</t>
+          <t>70,15; 75,2</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,35; 75,37</t>
+          <t>70,19; 75,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,58; 74,43</t>
+          <t>66,27; 74,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,97; 73,59</t>
+          <t>69,14; 73,66</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,17; 72,85</t>
+          <t>65,26; 73,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,64; 68,77</t>
+          <t>62,73; 69,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,89; 70,02</t>
+          <t>65,18; 70,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,97; 73,93</t>
+          <t>70,15; 74,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,45; 72,89</t>
+          <t>67,35; 72,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,2; 72,4</t>
+          <t>69,29; 72,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>72,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>72,85%</t>
+          <t>72,67%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,57; 76,48</t>
+          <t>67,99; 76,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,45; 75,59</t>
+          <t>69,89; 75,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,15; 75,2</t>
+          <t>70,08; 74,98</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69,22%</t>
+          <t>68,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,93%</t>
+          <t>71,71%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,19; 75,44</t>
+          <t>70,72; 83,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,27; 74,33</t>
+          <t>61,41; 76,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,14; 73,66</t>
+          <t>67,95; 77,75</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,84%</t>
+          <t>65,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>67,16%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,26; 73,2</t>
+          <t>63,78; 72,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,73; 69,26</t>
+          <t>62,85; 69,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,18; 70,06</t>
+          <t>64,58; 69,7</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,98%</t>
+          <t>73,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>70,99%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,15; 74,08</t>
+          <t>70,38; 79,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,35; 72,9</t>
+          <t>64,42; 74,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,29; 72,55</t>
+          <t>68,03; 74,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>67,99; 76,07</t>
+          <t>68,53; 75,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,89; 75,6</t>
+          <t>69,65; 75,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,08; 74,98</t>
+          <t>70,02; 74,77</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,72; 83,14</t>
+          <t>70,9; 82,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,41; 76,28</t>
+          <t>62,37; 76,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,95; 77,75</t>
+          <t>67,4; 77,2</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,78; 72,57</t>
+          <t>63,82; 72,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,85; 69,26</t>
+          <t>62,64; 68,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,58; 69,7</t>
+          <t>64,47; 69,7</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,38; 79,23</t>
+          <t>70,32; 80,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,42; 74,55</t>
+          <t>64,93; 74,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,03; 74,81</t>
+          <t>68,25; 75,43</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>305072</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>440198</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>745269</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>288944; 320357</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>420682; 458139</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>718074; 766807</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1304</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3063</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1610993</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1411823</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3022816</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1525525; 1778478</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1287097; 1582755</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2841057; 3254014</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>422420</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>416405</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>838825</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>393849; 445208</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>395858; 433918</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>805232; 870581</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3192</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5322</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2338485</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2268426</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4606910</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2243647; 2554005</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2142231; 2463827</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4429450; 4895398</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>